--- a/form.xlsx
+++ b/form.xlsx
@@ -32,8 +32,8 @@
       <rPr>
         <b/>
         <sz val="22"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <color theme="9"/>
+        <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
       <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
@@ -261,10 +261,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -323,6 +323,135 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -332,138 +461,9 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="22"/>
+      <color theme="9"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -476,181 +476,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799951170384838"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,30 +682,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -752,6 +728,30 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -759,17 +759,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -779,6 +773,45 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -798,39 +831,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -842,16 +842,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -862,10 +862,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -877,134 +877,134 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1039,14 +1039,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1054,20 +1063,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1403,8 +1412,8 @@
   <sheetPr/>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="60" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1501,14 +1510,11 @@
         <v>8</v>
       </c>
       <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14">
-        <f>D7*0.0015</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A8" s="12"/>
@@ -1522,8 +1528,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A9" s="12"/>
@@ -1537,8 +1543,8 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A10" s="12"/>
@@ -1546,12 +1552,12 @@
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
     </row>
     <row r="11" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A11" s="12"/>
@@ -1565,8 +1571,8 @@
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
     </row>
     <row r="12" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A12" s="12"/>
@@ -1580,8 +1586,8 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
     </row>
     <row r="13" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A13" s="12"/>
@@ -1589,12 +1595,12 @@
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
     </row>
     <row r="14" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A14" s="12"/>
@@ -1608,8 +1614,8 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
     </row>
     <row r="15" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A15" s="12"/>
@@ -1623,8 +1629,8 @@
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
     </row>
     <row r="16" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A16" s="12"/>
@@ -1638,100 +1644,100 @@
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
     </row>
     <row r="17" s="1" customFormat="1" ht="47.4" customHeight="1" spans="1:9">
       <c r="A17" s="12"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
     </row>
     <row r="18" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
       <c r="A18" s="12"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="22"/>
+      <c r="C18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
       <c r="A19" s="12"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="17" t="s">
+      <c r="B19" s="22"/>
+      <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
     </row>
     <row r="20" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
       <c r="A20" s="12"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="17" t="s">
+      <c r="B20" s="22"/>
+      <c r="C20" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
     </row>
     <row r="21" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
       <c r="A21" s="12"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="17" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
     </row>
     <row r="22" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
       <c r="A22" s="12"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="17" t="s">
+      <c r="B22" s="26"/>
+      <c r="C22" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
     </row>
     <row r="23" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A23" s="12"/>
@@ -1741,14 +1747,14 @@
       <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
     </row>
     <row r="24" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A24" s="12"/>
@@ -1756,12 +1762,12 @@
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
     </row>
     <row r="25" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A25" s="12"/>
@@ -1769,14 +1775,14 @@
       <c r="C25" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="9" t="s">
         <v>43</v>
       </c>
       <c r="G25" s="9"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
     </row>
     <row r="26" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A26" s="12"/>
@@ -1784,12 +1790,12 @@
       <c r="C26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A27" s="12"/>
@@ -1797,12 +1803,12 @@
       <c r="C27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
     </row>
     <row r="28" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A28" s="12"/>
@@ -1816,8 +1822,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="29" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A29" s="12"/>
@@ -1831,8 +1837,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
     </row>
     <row r="30" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A30" s="12"/>
@@ -1846,8 +1852,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
     </row>
     <row r="31" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A31" s="12"/>
@@ -1863,8 +1869,8 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
     </row>
     <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A32" s="12"/>
@@ -1878,8 +1884,8 @@
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
     </row>
     <row r="33" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A33" s="12"/>
@@ -1893,8 +1899,8 @@
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
     </row>
     <row r="34" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A34" s="12"/>
@@ -1904,12 +1910,12 @@
       <c r="C34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
     </row>
     <row r="35" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A35" s="12"/>
@@ -1923,8 +1929,8 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A36" s="12"/>
@@ -1938,8 +1944,8 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:9">
       <c r="A37" s="12"/>
@@ -1947,14 +1953,14 @@
       <c r="C37" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D37" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
     </row>
     <row r="38" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A38" s="12"/>
@@ -1968,8 +1974,8 @@
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
     </row>
     <row r="39" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A39" s="12"/>
@@ -1981,8 +1987,8 @@
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
     </row>
     <row r="40" s="1" customFormat="1" customHeight="1" spans="1:9">
       <c r="A40" s="12"/>
@@ -1994,8 +2000,8 @@
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
     </row>
     <row r="41" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
       <c r="A41" s="12"/>
@@ -2011,63 +2017,62 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
     </row>
     <row r="42" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
       <c r="A42" s="12"/>
       <c r="B42" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
     </row>
     <row r="43" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
       <c r="A43" s="12"/>
       <c r="B43" s="9"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:9">
       <c r="A44" s="12"/>
       <c r="B44" s="9"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
     </row>
     <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="51">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="C5:G5"/>
     <mergeCell ref="C6:G6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="D9:G9"/>
     <mergeCell ref="D10:G10"/>

--- a/form.xlsx
+++ b/form.xlsx
@@ -7,17 +7,17 @@
     <workbookView windowWidth="18637" windowHeight="7035"/>
   </bookViews>
   <sheets>
-    <sheet name="KB727.COM - 资产收购前期调查表" sheetId="1" r:id="rId1"/>
+    <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
   <si>
     <r>
-      <t>资产收购前期调查表</t>
+      <t>物流地产收购前期调查表</t>
     </r>
     <r>
       <rPr>
@@ -31,8 +31,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="22"/>
-        <color theme="9"/>
+        <sz val="24"/>
         <rFont val="等线"/>
         <charset val="134"/>
       </rPr>
@@ -49,13 +48,13 @@
     <t>意向价格</t>
   </si>
   <si>
-    <t xml:space="preserve">                              □固定金额  □按每亩单价 □按公司净资产 □其他 </t>
+    <t xml:space="preserve">                              □固定金额  □按每亩单价  □按公司净资产  □其他 </t>
   </si>
   <si>
     <t>交易方式</t>
   </si>
   <si>
-    <t xml:space="preserve">   □股权转让         □ 资产转让        □司法拍卖       □其他（                                                                      ）</t>
+    <t xml:space="preserve">   □股权转让         □ 资产转让        □司法拍卖       □其他（         ）</t>
   </si>
   <si>
     <t>土    地</t>
@@ -73,10 +72,10 @@
     <t>土地来源</t>
   </si>
   <si>
-    <t>□招拍挂   □司法拍卖   □股权/资产转让     □其他:协议出让/划拨</t>
-  </si>
-  <si>
-    <t>使用权期限:</t>
+    <t>□招拍挂   □司法拍卖   □股权/资产转让   □其他:协议出让/划拨</t>
+  </si>
+  <si>
+    <t>剩余土地年限:</t>
   </si>
   <si>
     <t>土地用途:</t>
@@ -91,13 +90,16 @@
     <t>□建设用地规划许可证   □土地证（     ）本   □工规证    □施工证</t>
   </si>
   <si>
-    <t>容积率指标:</t>
+    <t>规划条件</t>
+  </si>
+  <si>
+    <t>容积率、绿地率、建筑密度、人防要求等</t>
   </si>
   <si>
     <t>土地款及税费</t>
   </si>
   <si>
-    <t>出让金、契税、房产税（如适用）等税费均已足额缴纳</t>
+    <t>出让金、契税、房土两税、城市建设配套费等税费均已足额缴纳</t>
   </si>
   <si>
     <t>周边交通</t>
@@ -112,6 +114,18 @@
     <t>是否为净地，土地是否达到施工条件（七通一平）</t>
   </si>
   <si>
+    <t>出让合同履约情况</t>
+  </si>
+  <si>
+    <t>开竣工要求、是否构成闲置土地等</t>
+  </si>
+  <si>
+    <t>是否涉及土壤修复</t>
+  </si>
+  <si>
+    <t>土地演变情况、原项目有无土壤污染等</t>
+  </si>
+  <si>
     <t>监管要求</t>
   </si>
   <si>
@@ -142,13 +156,13 @@
     <t>监管协议</t>
   </si>
   <si>
-    <t>当地政府对项目转让要求</t>
-  </si>
-  <si>
-    <t>税收优惠</t>
-  </si>
-  <si>
-    <t>项目税收优惠及返还情况</t>
+    <t>当地政府对项目转让要求（含股权变更限制）</t>
+  </si>
+  <si>
+    <t>扶持政策</t>
+  </si>
+  <si>
+    <t>是否存在土地款、产业扶持资金、项目税收优惠及返还情况，有无相关纠纷。</t>
   </si>
   <si>
     <t>建筑物</t>
@@ -160,31 +174,46 @@
     <t xml:space="preserve">                                       其中地下建面:</t>
   </si>
   <si>
-    <t>建筑类型：</t>
-  </si>
-  <si>
-    <t>建筑结构：</t>
-  </si>
-  <si>
-    <t>层数</t>
-  </si>
-  <si>
-    <t>产证面积：</t>
-  </si>
-  <si>
-    <t>无证面积：</t>
-  </si>
-  <si>
-    <t>竣工日期：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                        是否存在延期申请</t>
+    <t>建筑类型</t>
+  </si>
+  <si>
+    <t>仓库/厂房：           栋数：</t>
+  </si>
+  <si>
+    <t>办公楼/宿舍：      栋数：</t>
+  </si>
+  <si>
+    <t>建筑结构</t>
+  </si>
+  <si>
+    <t>钢架结构：</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 层数：</t>
+  </si>
+  <si>
+    <t>砖混结构：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    层数：</t>
+  </si>
+  <si>
+    <t>产证面积</t>
+  </si>
+  <si>
+    <t>无证面积</t>
+  </si>
+  <si>
+    <t>竣工日期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       年     月    日                  （ 是否存在延期申请）</t>
   </si>
   <si>
     <t>消防情况</t>
   </si>
   <si>
-    <t>是否完成消防验收 /消防等级</t>
+    <t>是否完成消防验收/消防等级</t>
   </si>
   <si>
     <t>对外出租情况</t>
@@ -199,7 +228,7 @@
     <t>借款抵押</t>
   </si>
   <si>
-    <t>□无                 □有（                                                                                  ）</t>
+    <t>□无                 □有（                                ）</t>
   </si>
   <si>
     <t>司法查封</t>
@@ -211,7 +240,10 @@
     <t>项目公司</t>
   </si>
   <si>
-    <t>实控人/隐名股东</t>
+    <t>股东情况</t>
+  </si>
+  <si>
+    <t>股东情况、实控人、隐名股东及代持情况</t>
   </si>
   <si>
     <t>公司负债</t>
@@ -223,7 +255,7 @@
     <t>注册资本</t>
   </si>
   <si>
-    <t>注册资本已经全部实缴</t>
+    <t>注册资本是否已经全部实缴</t>
   </si>
   <si>
     <t>经营范围</t>
@@ -235,13 +267,13 @@
     <t>股权限制情况</t>
   </si>
   <si>
-    <t>□ 无查封                □ 有查封（                              ）</t>
-  </si>
-  <si>
-    <t>□ 无质押                □ 有质押（                              ）</t>
-  </si>
-  <si>
-    <t>□ 有其他转让限制（                                               ）</t>
+    <t>□ 无查封                □ 有查封（                       ）</t>
+  </si>
+  <si>
+    <t>□ 无质押                □ 有质押（                       ）</t>
+  </si>
+  <si>
+    <t>□ 有其他转让限制（                                        ）</t>
   </si>
   <si>
     <t>对接人</t>
@@ -262,9 +294,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -305,12 +337,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -324,16 +350,107 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -348,22 +465,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,76 +481,7 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,13 +489,12 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="22"/>
-      <color theme="9"/>
+      <sz val="24"/>
       <name val="等线"/>
       <charset val="134"/>
     </font>
@@ -476,31 +508,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,43 +634,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,7 +658,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,91 +688,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399945066682943"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799951170384838"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -682,6 +714,19 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -728,19 +773,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -761,6 +793,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -773,30 +816,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,13 +850,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -862,10 +894,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,191 +906,202 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1066,25 +1109,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1410,13 +1455,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
@@ -1425,12 +1470,8 @@
     <col min="5" max="5" width="19.2212389380531" style="2" customWidth="1"/>
     <col min="6" max="6" width="21.4424778761062" style="2" customWidth="1"/>
     <col min="7" max="7" width="28.7787610619469" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9" style="2" customWidth="1"/>
-    <col min="10" max="10" width="60.7787610619469" style="2" customWidth="1"/>
-    <col min="11" max="11" width="20.3362831858407" style="2" customWidth="1"/>
-    <col min="12" max="12" width="12.7787610619469" style="2" customWidth="1"/>
-    <col min="13" max="13" width="14" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="60.7787610619469" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -1443,67 +1484,67 @@
       <c r="G1" s="4"/>
     </row>
     <row r="2" ht="141" customHeight="1" spans="1:7">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
-      <c r="A3" s="6"/>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:7">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:7">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A7" s="12"/>
-      <c r="B7" s="9" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="13" t="s">
@@ -1513,42 +1554,36 @@
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A8" s="12"/>
-      <c r="B8" s="9"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A10" s="12"/>
-      <c r="B10" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
         <v>13</v>
       </c>
@@ -1556,517 +1591,485 @@
       <c r="E10" s="18"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A11" s="12"/>
-      <c r="B11" s="9"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A12" s="12"/>
-      <c r="B12" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A13" s="12"/>
-      <c r="B13" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A14" s="12"/>
-      <c r="B14" s="9"/>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A15" s="12"/>
-      <c r="B15" s="9"/>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
       <c r="C15" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A16" s="12"/>
-      <c r="B16" s="9"/>
+      <c r="D15" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
       <c r="C16" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="47.4" customHeight="1" spans="1:9">
-      <c r="A17" s="12"/>
-      <c r="B17" s="19" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
-      <c r="A18" s="12"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="20" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
-      <c r="A19" s="12"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="20" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="C19" s="13" t="s">
         <v>31</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
-      <c r="A20" s="12"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="23" t="s">
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
-      <c r="A21" s="12"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="20" t="s">
+      <c r="D20" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="34.8" customHeight="1" spans="1:9">
-      <c r="A22" s="12"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="20" t="s">
+      <c r="D21" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A23" s="12"/>
-      <c r="B23" s="9" t="s">
+      <c r="D22" s="26" t="s">
         <v>38</v>
       </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="25"/>
       <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A24" s="12"/>
-      <c r="B24" s="9"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="29"/>
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9"/>
+      <c r="D24" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="C25" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="18"/>
+        <v>44</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>45</v>
+      </c>
       <c r="E25" s="18"/>
-      <c r="F25" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
       <c r="C26" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
+        <v>46</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
       <c r="C27" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
+        <v>49</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
+        <v>54</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
+        <v>55</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
       <c r="C30" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="8"/>
       <c r="C32" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8" t="s">
+        <v>62</v>
+      </c>
       <c r="C33" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8"/>
       <c r="C34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
+        <v>65</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
+        <v>66</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="C36" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:9">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
+        <v>68</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
       <c r="C37" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="D37" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:9">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:9">
-      <c r="A41" s="12"/>
-      <c r="B41" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C41" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:9">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9" t="s">
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:9">
-      <c r="A44" s="12"/>
-      <c r="B44" s="9"/>
+      <c r="D38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8" t="s">
+        <v>83</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-    </row>
-    <row r="45" customHeight="1" spans="2:9">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" customHeight="1" spans="2:7">
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="52">
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -2090,10 +2093,9 @@
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="D23:G23"/>
     <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
     <mergeCell ref="D28:G28"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
@@ -2107,20 +2109,22 @@
     <mergeCell ref="D38:G38"/>
     <mergeCell ref="D39:G39"/>
     <mergeCell ref="D40:G40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B22"/>
-    <mergeCell ref="B23:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B40"/>
-    <mergeCell ref="B42:B44"/>
-    <mergeCell ref="C38:C40"/>
-    <mergeCell ref="C42:G44"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="B47:G47"/>
+    <mergeCell ref="B7:B18"/>
+    <mergeCell ref="B19:B24"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B42"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C44:G46"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait" horizontalDpi="600" verticalDpi="600"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/form.xlsx
+++ b/form.xlsx
@@ -4,19 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18637" windowHeight="7035"/>
+    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
+    <sheet name="酒店资产收购前期调查表" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>物流地产收购前期调查表</t>
     </r>
     <r>
@@ -287,6 +294,170 @@
   <si>
     <t>备注</t>
   </si>
+  <si>
+    <r>
+      <t>酒店资产收购前期调查表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="36"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="24"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+      </rPr>
+      <t>说明：请发送已填写的表单文件给 webmaster@kb727.com ，另附：区位图、卫星图、交通图、红线图、建筑平面图、建筑参数、现场实景照片、土地证、产权证、消防合格证，以便评估反馈。</t>
+    </r>
+  </si>
+  <si>
+    <t>□工业        □商业       □办公         □商办        □其他</t>
+  </si>
+  <si>
+    <t>距离主要交通枢纽-公交站、地铁站、火车站、高速口（    ）公里；
+三公里范围内办公楼、政务机构、大学、三甲医院、景区、会展中心（    ）</t>
+  </si>
+  <si>
+    <t>注册地址现状</t>
+  </si>
+  <si>
+    <t>地块上注册地址现状</t>
+  </si>
+  <si>
+    <t>是否涉及拆迁</t>
+  </si>
+  <si>
+    <t>三公里范围内是否有即将开始或正在进行的市政工程项目或拆迁</t>
+  </si>
+  <si>
+    <t>如为工业用地，能否转性为商业办公用地、是否需补齐地价和相关手续以及办理不动产权证；如为办公用地，用作营业性用途的相关手续是否齐备</t>
+  </si>
+  <si>
+    <t>投资协议及土地合同</t>
+  </si>
+  <si>
+    <t>如有，包括产业准入、投资强度、亩均税收及罚则、当地政府对项目转让要求（含股权变更限制）、扶持政策</t>
+  </si>
+  <si>
+    <t>相关证照</t>
+  </si>
+  <si>
+    <t>消防安全合格证、特种行业经营许可证、卫生许可证、餐饮服务经营许可证等</t>
+  </si>
+  <si>
+    <t>过往处罚</t>
+  </si>
+  <si>
+    <t>是否在食品安全、消防安全、卫生管理、旅游、治安等方面接受过行政处罚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                        其中地下建面:</t>
+  </si>
+  <si>
+    <t>设施设备</t>
+  </si>
+  <si>
+    <t>需提供设施设备清单，包含采购时间、采购金额、目前运行情况、预计翻新时间</t>
+  </si>
+  <si>
+    <t>停车位情况</t>
+  </si>
+  <si>
+    <t>是否有专属停车位、是否有产权、停车位数量、临停收费标准等</t>
+  </si>
+  <si>
+    <t>名下是否有其他物业</t>
+  </si>
+  <si>
+    <t>□是，如有，请列明         □否</t>
+  </si>
+  <si>
+    <t>经营情况</t>
+  </si>
+  <si>
+    <t>是否加盟</t>
+  </si>
+  <si>
+    <t>□是，加盟品牌：   ，加盟期收费标准：     ，初始投入（含装修）：
+□否，初始投入（含装修）：</t>
+  </si>
+  <si>
+    <t>房间数</t>
+  </si>
+  <si>
+    <t>列明房型及对应面积</t>
+  </si>
+  <si>
+    <t>配套</t>
+  </si>
+  <si>
+    <t>□中餐厅，面积：   ，位数：       □西餐厅，面积：   ，位数：
+□咖啡厅，面积：   ，位数：       □包房，面积：   ，位数：
+□健身房，面积：                 □其他，如有，请列明</t>
+  </si>
+  <si>
+    <t>是否翻新</t>
+  </si>
+  <si>
+    <t>□是，列明时间及翻新投入          □否</t>
+  </si>
+  <si>
+    <t>入住率（OCC）</t>
+  </si>
+  <si>
+    <t>自开业以来的年度、季度、月度入住率</t>
+  </si>
+  <si>
+    <t>平均房价（ADR）</t>
+  </si>
+  <si>
+    <t>自开业以来的年度、季度、月度实际平均房价</t>
+  </si>
+  <si>
+    <t>平均每间可供出租客房的
+总收入（TRevPAR）</t>
+  </si>
+  <si>
+    <t>自开业以来的年度、季度、月度TRevPAR</t>
+  </si>
+  <si>
+    <t>平均每间可供出租客房的
+总运营利润（GOPPAR）</t>
+  </si>
+  <si>
+    <t>自开业以来的年度、季度、月度GOPPAR</t>
+  </si>
+  <si>
+    <t>总收入</t>
+  </si>
+  <si>
+    <t>自开业以来的总收入数据，请列明客房收入、餐饮收入、其他收入的占比</t>
+  </si>
+  <si>
+    <t>总运营利润（GOP）</t>
+  </si>
+  <si>
+    <t>扣除可变成本（与销售直接相关的成本）后，反映酒店的经营状况</t>
+  </si>
+  <si>
+    <t>纯利润</t>
+  </si>
+  <si>
+    <t>扣除可变成本和固定成本（租金、折旧、利息等）后，反映酒店的盈利状况</t>
+  </si>
+  <si>
+    <t>平台合作情况</t>
+  </si>
+  <si>
+    <t>□携程    □飞猪     □其他平台，需列明合作的主要条款</t>
+  </si>
 </sst>
 </file>
 
@@ -294,9 +465,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -349,8 +520,38 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,76 +565,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -446,9 +578,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -459,6 +599,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -477,9 +625,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,6 +657,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="24"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -508,7 +679,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,7 +703,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,13 +787,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,126 +841,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -682,13 +853,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,10 +964,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -805,17 +974,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -831,21 +1006,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,8 +1028,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,10 +1065,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -906,142 +1077,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1088,47 +1259,47 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1457,21 +1628,21 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8849557522124" style="2" customWidth="1"/>
-    <col min="4" max="4" width="29.4424778761062" style="2" customWidth="1"/>
-    <col min="5" max="5" width="19.2212389380531" style="2" customWidth="1"/>
-    <col min="6" max="6" width="21.4424778761062" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.7787610619469" style="2" customWidth="1"/>
-    <col min="8" max="8" width="60.7787610619469" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="3" max="3" width="23.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
@@ -1542,7 +1713,7 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="11"/>
       <c r="B7" s="12" t="s">
         <v>7</v>
@@ -1555,7 +1726,7 @@
       <c r="F7" s="15"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A8" s="11"/>
       <c r="B8" s="17"/>
       <c r="C8" s="13" t="s">
@@ -1568,7 +1739,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A9" s="11"/>
       <c r="B9" s="17"/>
       <c r="C9" s="13" t="s">
@@ -1581,7 +1752,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
     </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A10" s="11"/>
       <c r="B10" s="17"/>
       <c r="C10" s="13" t="s">
@@ -1592,7 +1763,7 @@
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
     </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A11" s="11"/>
       <c r="B11" s="17"/>
       <c r="C11" s="13" t="s">
@@ -1605,7 +1776,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
     </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A12" s="11"/>
       <c r="B12" s="17"/>
       <c r="C12" s="13" t="s">
@@ -1618,7 +1789,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
     </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A13" s="11"/>
       <c r="B13" s="17"/>
       <c r="C13" s="13" t="s">
@@ -1631,7 +1802,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A14" s="11"/>
       <c r="B14" s="17"/>
       <c r="C14" s="13" t="s">
@@ -1644,7 +1815,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
     </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A15" s="11"/>
       <c r="B15" s="17"/>
       <c r="C15" s="13" t="s">
@@ -1657,7 +1828,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A16" s="11"/>
       <c r="B16" s="17"/>
       <c r="C16" s="13" t="s">
@@ -1670,7 +1841,7 @@
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A17" s="11"/>
       <c r="B17" s="17"/>
       <c r="C17" s="13" t="s">
@@ -1683,9 +1854,9 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A18" s="11"/>
-      <c r="B18" s="19"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="13" t="s">
         <v>28</v>
       </c>
@@ -1696,87 +1867,87 @@
       <c r="F18" s="21"/>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" s="1" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
+    <row r="19" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
       <c r="A19" s="11"/>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="30" t="s">
         <v>30</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
       <c r="A20" s="11"/>
-      <c r="B20" s="25"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
       <c r="A21" s="11"/>
-      <c r="B21" s="25"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
       <c r="A22" s="11"/>
-      <c r="B22" s="25"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
       <c r="A23" s="11"/>
-      <c r="B23" s="25"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
       <c r="A24" s="11"/>
-      <c r="B24" s="29"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="11"/>
       <c r="B25" s="8" t="s">
         <v>43</v>
@@ -1791,7 +1962,7 @@
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
     </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A26" s="11"/>
       <c r="B26" s="8"/>
       <c r="C26" s="13" t="s">
@@ -1806,26 +1977,26 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A27" s="11"/>
       <c r="B27" s="8"/>
       <c r="C27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="31" t="s">
+      <c r="E27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="27" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="22" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="11"/>
       <c r="B28" s="8"/>
       <c r="C28" s="13" t="s">
@@ -1836,7 +2007,7 @@
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
     </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A29" s="11"/>
       <c r="B29" s="8"/>
       <c r="C29" s="13" t="s">
@@ -1847,7 +2018,7 @@
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
     </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A30" s="11"/>
       <c r="B30" s="8"/>
       <c r="C30" s="13" t="s">
@@ -1860,7 +2031,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
     </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A31" s="11"/>
       <c r="B31" s="8"/>
       <c r="C31" s="13" t="s">
@@ -1873,7 +2044,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
     </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A32" s="11"/>
       <c r="B32" s="8"/>
       <c r="C32" s="13" t="s">
@@ -1886,7 +2057,7 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
     </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="11"/>
       <c r="B33" s="8" t="s">
         <v>62</v>
@@ -1901,7 +2072,7 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A34" s="11"/>
       <c r="B34" s="8"/>
       <c r="C34" s="13" t="s">
@@ -1914,7 +2085,7 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
     </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="11"/>
       <c r="B35" s="8"/>
       <c r="C35" s="13" t="s">
@@ -1927,7 +2098,7 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
     </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="11"/>
       <c r="B36" s="8" t="s">
         <v>67</v>
@@ -1942,7 +2113,7 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
     </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A37" s="11"/>
       <c r="B37" s="8"/>
       <c r="C37" s="13" t="s">
@@ -1955,7 +2126,7 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
     </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="11"/>
       <c r="B38" s="8"/>
       <c r="C38" s="13" t="s">
@@ -1968,20 +2139,20 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
+    <row r="39" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
       <c r="A39" s="11"/>
       <c r="B39" s="8"/>
       <c r="C39" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A40" s="11"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8" t="s">
@@ -1994,7 +2165,7 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A41" s="11"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -2005,7 +2176,7 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
     </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A42" s="11"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -2016,7 +2187,7 @@
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+    <row r="43" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A43" s="11"/>
       <c r="B43" s="8" t="s">
         <v>80</v>
@@ -2031,7 +2202,7 @@
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
     </row>
-    <row r="44" s="1" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
+    <row r="44" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
       <c r="A44" s="11"/>
       <c r="B44" s="8" t="s">
         <v>83</v>
@@ -2042,7 +2213,7 @@
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
     </row>
-    <row r="45" s="1" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+    <row r="45" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
       <c r="A45" s="11"/>
       <c r="B45" s="8"/>
       <c r="C45" s="18"/>
@@ -2051,7 +2222,7 @@
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
     </row>
-    <row r="46" s="1" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
+    <row r="46" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
       <c r="A46" s="11"/>
       <c r="B46" s="8"/>
       <c r="C46" s="18"/>
@@ -2061,12 +2232,12 @@
       <c r="G46" s="18"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="32"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="32"/>
-      <c r="E47" s="32"/>
-      <c r="F47" s="32"/>
-      <c r="G47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2127,4 +2298,891 @@
   <pageSetup paperSize="9" fitToWidth="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="17" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.8583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:7">
+      <c r="A2" s="4"/>
+      <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
+      <c r="A4" s="4"/>
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:7">
+      <c r="A5" s="4"/>
+      <c r="B5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
+      <c r="A6" s="4"/>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+    </row>
+    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+    </row>
+    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A20" s="11"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A23" s="11"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
+      <c r="A24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A25" s="11"/>
+      <c r="B25" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A28" s="11"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+    </row>
+    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A31" s="11"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+    </row>
+    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A32" s="11"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+    </row>
+    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A34" s="11"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A35" s="11"/>
+      <c r="B35" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A36" s="11"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+    </row>
+    <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A37" s="11"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+    </row>
+    <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A38" s="11"/>
+      <c r="B38" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+    </row>
+    <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A39" s="11"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+    </row>
+    <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A40" s="11"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A41" s="11"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+    </row>
+    <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A42" s="11"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
+    </row>
+    <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A43" s="11"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+    </row>
+    <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A44" s="11"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A45" s="11"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+    </row>
+    <row r="46" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
+    </row>
+    <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A47" s="11"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="70" customHeight="1" spans="1:7">
+      <c r="A48" s="11"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
+    </row>
+    <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A49" s="11"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A50" s="11"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
+    </row>
+    <row r="51" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A51" s="11"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
+    </row>
+    <row r="52" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
+      <c r="A52" s="11"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
+      <c r="A53" s="11"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
+    </row>
+    <row r="54" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A54" s="11"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A55" s="11"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
+    </row>
+    <row r="56" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A56" s="11"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
+    </row>
+    <row r="57" s="2" customFormat="1" customHeight="1" spans="1:7">
+      <c r="A57" s="11"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
+    </row>
+    <row r="58" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
+      <c r="A58" s="11"/>
+      <c r="B58" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A60" s="11"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
+      <c r="A61" s="11"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="2:7">
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="68">
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="D20:G20"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D31:G31"/>
+    <mergeCell ref="D32:G32"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D37:G37"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D54:G54"/>
+    <mergeCell ref="D55:G55"/>
+    <mergeCell ref="D56:G56"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="B62:G62"/>
+    <mergeCell ref="B7:B20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="B25:B34"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="B38:B45"/>
+    <mergeCell ref="B46:B57"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="C43:C45"/>
+    <mergeCell ref="C59:G61"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/form.xlsx
+++ b/form.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="131">
   <si>
     <r>
       <rPr>
@@ -295,7 +295,18 @@
     <t>备注</t>
   </si>
   <si>
+    <t>請聯絡 https://t.me/laurelhu 核對您自行翻譯的需求表。
+ご自身の翻訳依頼書を https://t.me/laurelhu にご確認ください。
+Please contact https://t.me/laurelhu to check your self-translation request form.</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="36"/>
+        <rFont val="黑体"/>
+        <charset val="134"/>
+      </rPr>
       <t>酒店资产收购前期调查表</t>
     </r>
     <r>
@@ -464,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -520,11 +531,40 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -536,15 +576,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -558,83 +600,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,7 +623,45 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -658,7 +669,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -679,7 +690,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,55 +768,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -757,7 +798,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,19 +816,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,73 +858,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -962,6 +973,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -980,17 +1006,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1010,37 +1047,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,10 +1076,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1077,137 +1088,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1217,6 +1228,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1647,7 +1661,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:7">
       <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1656,588 +1670,588 @@
     </row>
     <row r="2" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="52">
@@ -2306,7 +2320,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2322,797 +2336,800 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
       <c r="A1" s="4"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="D19" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+      <c r="D42" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="C46" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="D46" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="D48" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D49" s="24" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="D49" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="20" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="D50" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A51" s="11"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="D51" s="20" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="D51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A52" s="11"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="D52" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A53" s="11"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D53" s="20" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="D53" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A54" s="11"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="D54" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A55" s="11"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="D55" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A56" s="11"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="D56" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A57" s="11"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="D57" s="20" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+      <c r="D57" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A58" s="11"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A59" s="11"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A60" s="11"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A61" s="11"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
+  <mergeCells count="69">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>

--- a/form.xlsx
+++ b/form.xlsx
@@ -15,7 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+  <si>
+    <t>請聯絡 https://t.me/laurelhu 核對您自行翻譯的需求表。
+ご自身の翻訳依頼書を https://t.me/laurelhu にご確認ください。
+Please contact https://t.me/laurelhu to check your self-translation request form.</t>
+  </si>
   <si>
     <r>
       <rPr>
@@ -295,11 +300,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>請聯絡 https://t.me/laurelhu 核對您自行翻譯的需求表。
-ご自身の翻訳依頼書を https://t.me/laurelhu にご確認ください。
-Please contact https://t.me/laurelhu to check your self-translation request form.</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -476,11 +476,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,6 +503,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -532,20 +537,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -568,11 +565,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,30 +664,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -624,52 +675,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,19 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -714,7 +707,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,19 +815,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,37 +839,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,79 +863,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,17 +978,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,41 +992,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1047,15 +1011,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1070,16 +1025,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1088,133 +1093,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1228,91 +1233,91 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1642,8 +1647,8 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -1659,19 +1664,21 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:7">
+    <row r="1" ht="66" customHeight="1" spans="1:7">
       <c r="A1" s="4"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
       <c r="B2" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -1682,7 +1689,7 @@
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -1693,7 +1700,7 @@
     <row r="4" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -1704,10 +1711,10 @@
     <row r="5" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -1717,10 +1724,10 @@
     <row r="6" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -1730,10 +1737,10 @@
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
@@ -1744,10 +1751,10 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -1757,10 +1764,10 @@
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1770,7 +1777,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -1781,10 +1788,10 @@
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
@@ -1794,10 +1801,10 @@
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -1807,10 +1814,10 @@
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -1820,10 +1827,10 @@
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1833,10 +1840,10 @@
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="9"/>
@@ -1846,10 +1853,10 @@
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -1859,10 +1866,10 @@
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
       <c r="C17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -1872,10 +1879,10 @@
       <c r="A18" s="12"/>
       <c r="B18" s="24"/>
       <c r="C18" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="22"/>
@@ -1884,13 +1891,13 @@
     <row r="19" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
       <c r="A19" s="12"/>
       <c r="B19" s="31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
@@ -1900,10 +1907,10 @@
       <c r="A20" s="12"/>
       <c r="B20" s="32"/>
       <c r="C20" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
@@ -1913,10 +1920,10 @@
       <c r="A21" s="12"/>
       <c r="B21" s="32"/>
       <c r="C21" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="26"/>
@@ -1926,10 +1933,10 @@
       <c r="A22" s="12"/>
       <c r="B22" s="32"/>
       <c r="C22" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E22" s="26"/>
       <c r="F22" s="26"/>
@@ -1939,10 +1946,10 @@
       <c r="A23" s="12"/>
       <c r="B23" s="32"/>
       <c r="C23" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E23" s="26"/>
       <c r="F23" s="26"/>
@@ -1952,10 +1959,10 @@
       <c r="A24" s="12"/>
       <c r="B24" s="33"/>
       <c r="C24" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="26"/>
@@ -1964,13 +1971,13 @@
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
@@ -1980,14 +1987,14 @@
       <c r="A26" s="12"/>
       <c r="B26" s="9"/>
       <c r="C26" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" s="23"/>
     </row>
@@ -1995,26 +2002,26 @@
       <c r="A27" s="12"/>
       <c r="B27" s="9"/>
       <c r="C27" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="9"/>
       <c r="C28" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -2025,7 +2032,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="9"/>
       <c r="C29" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -2036,10 +2043,10 @@
       <c r="A30" s="12"/>
       <c r="B30" s="9"/>
       <c r="C30" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2049,10 +2056,10 @@
       <c r="A31" s="12"/>
       <c r="B31" s="9"/>
       <c r="C31" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2062,10 +2069,10 @@
       <c r="A32" s="12"/>
       <c r="B32" s="9"/>
       <c r="C32" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2074,13 +2081,13 @@
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A33" s="12"/>
       <c r="B33" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2090,10 +2097,10 @@
       <c r="A34" s="12"/>
       <c r="B34" s="9"/>
       <c r="C34" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2103,10 +2110,10 @@
       <c r="A35" s="12"/>
       <c r="B35" s="9"/>
       <c r="C35" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2115,13 +2122,13 @@
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A36" s="12"/>
       <c r="B36" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2131,10 +2138,10 @@
       <c r="A37" s="12"/>
       <c r="B37" s="9"/>
       <c r="C37" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2144,10 +2151,10 @@
       <c r="A38" s="12"/>
       <c r="B38" s="9"/>
       <c r="C38" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2157,10 +2164,10 @@
       <c r="A39" s="12"/>
       <c r="B39" s="9"/>
       <c r="C39" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D39" s="20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
@@ -2170,10 +2177,10 @@
       <c r="A40" s="12"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2184,7 +2191,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -2195,7 +2202,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -2204,14 +2211,14 @@
     <row r="43" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A43" s="12"/>
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
@@ -2219,7 +2226,7 @@
     <row r="44" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
       <c r="A44" s="12"/>
       <c r="B44" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="19"/>
@@ -2254,7 +2261,8 @@
       <c r="G47" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="53">
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -2320,7 +2328,7 @@
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
@@ -2336,10 +2344,10 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="56" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
@@ -2361,7 +2369,7 @@
     <row r="3" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
       <c r="B3" s="9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -2372,7 +2380,7 @@
     <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
       <c r="B4" s="9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -2383,10 +2391,10 @@
     <row r="5" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
       <c r="B5" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" s="11"/>
       <c r="E5" s="11"/>
@@ -2396,10 +2404,10 @@
     <row r="6" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
       <c r="B6" s="9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2409,10 +2417,10 @@
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A7" s="12"/>
       <c r="B7" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="16"/>
@@ -2423,10 +2431,10 @@
       <c r="A8" s="12"/>
       <c r="B8" s="18"/>
       <c r="C8" s="14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
@@ -2436,10 +2444,10 @@
       <c r="A9" s="12"/>
       <c r="B9" s="18"/>
       <c r="C9" s="14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -2449,7 +2457,7 @@
       <c r="A10" s="12"/>
       <c r="B10" s="18"/>
       <c r="C10" s="14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -2460,7 +2468,7 @@
       <c r="A11" s="12"/>
       <c r="B11" s="18"/>
       <c r="C11" s="14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>86</v>
@@ -2473,10 +2481,10 @@
       <c r="A12" s="12"/>
       <c r="B12" s="18"/>
       <c r="C12" s="14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
@@ -2486,10 +2494,10 @@
       <c r="A13" s="12"/>
       <c r="B13" s="18"/>
       <c r="C13" s="14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
@@ -2499,10 +2507,10 @@
       <c r="A14" s="12"/>
       <c r="B14" s="18"/>
       <c r="C14" s="14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -2512,7 +2520,7 @@
       <c r="A15" s="12"/>
       <c r="B15" s="18"/>
       <c r="C15" s="14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>87</v>
@@ -2525,10 +2533,10 @@
       <c r="A16" s="12"/>
       <c r="B16" s="18"/>
       <c r="C16" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -2538,10 +2546,10 @@
       <c r="A17" s="12"/>
       <c r="B17" s="18"/>
       <c r="C17" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2577,10 +2585,10 @@
       <c r="A20" s="12"/>
       <c r="B20" s="24"/>
       <c r="C20" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
@@ -2589,10 +2597,10 @@
     <row r="21" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>92</v>
@@ -2643,10 +2651,10 @@
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A25" s="12"/>
       <c r="B25" s="19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D25" s="19" t="s">
         <v>99</v>
@@ -2659,14 +2667,14 @@
       <c r="A26" s="12"/>
       <c r="B26" s="19"/>
       <c r="C26" s="14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E26" s="23"/>
       <c r="F26" s="21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G26" s="23"/>
     </row>
@@ -2674,26 +2682,26 @@
       <c r="A27" s="12"/>
       <c r="B27" s="19"/>
       <c r="C27" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A28" s="12"/>
       <c r="B28" s="19"/>
       <c r="C28" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D28" s="19"/>
       <c r="E28" s="19"/>
@@ -2704,7 +2712,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="19"/>
       <c r="C29" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="19"/>
       <c r="E29" s="19"/>
@@ -2715,10 +2723,10 @@
       <c r="A30" s="12"/>
       <c r="B30" s="19"/>
       <c r="C30" s="14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2728,10 +2736,10 @@
       <c r="A31" s="12"/>
       <c r="B31" s="19"/>
       <c r="C31" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2767,10 +2775,10 @@
       <c r="A34" s="12"/>
       <c r="B34" s="19"/>
       <c r="C34" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2779,13 +2787,13 @@
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A35" s="12"/>
       <c r="B35" s="19" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2795,10 +2803,10 @@
       <c r="A36" s="12"/>
       <c r="B36" s="19"/>
       <c r="C36" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="9" t="s">
         <v>65</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>64</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2808,10 +2816,10 @@
       <c r="A37" s="12"/>
       <c r="B37" s="19"/>
       <c r="C37" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2820,13 +2828,13 @@
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
       <c r="A38" s="12"/>
       <c r="B38" s="19" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2836,10 +2844,10 @@
       <c r="A39" s="12"/>
       <c r="B39" s="19"/>
       <c r="C39" s="14" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2849,10 +2857,10 @@
       <c r="A40" s="12"/>
       <c r="B40" s="19"/>
       <c r="C40" s="14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2862,7 +2870,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="19"/>
       <c r="C41" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
@@ -2886,10 +2894,10 @@
       <c r="A43" s="12"/>
       <c r="B43" s="19"/>
       <c r="C43" s="9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2900,7 +2908,7 @@
       <c r="B44" s="19"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -2911,7 +2919,7 @@
       <c r="B45" s="19"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3078,14 +3086,14 @@
     <row r="58" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
       <c r="A58" s="12"/>
       <c r="B58" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D58" s="9"/>
       <c r="E58" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
@@ -3093,7 +3101,7 @@
     <row r="59" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
       <c r="A59" s="12"/>
       <c r="B59" s="19" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="19"/>
       <c r="D59" s="19"/>

--- a/form.xlsx
+++ b/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7035"/>
   </bookViews>
   <sheets>
     <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
-    <t>請聯絡 https://t.me/laurelhu 核對您自行翻譯的需求表。
-ご自身の翻訳依頼書を https://t.me/laurelhu にご確認ください。
-Please contact https://t.me/laurelhu to check your self-translation request form.</t>
+    <t>請聯絡 webmaster@kb727.com 核對您自行翻譯的需求表。
+ご自身の翻訳依頼書を webmaster@kb727.com にご確認ください。
+Please contact webmaster@kb727.com to check your self-translation request form.</t>
   </si>
   <si>
     <r>
@@ -475,10 +475,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -537,6 +537,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -544,7 +551,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,8 +587,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -589,62 +613,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -666,15 +637,44 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -695,115 +695,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -821,19 +713,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -845,37 +869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,9 +980,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,21 +994,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,13 +1028,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,16 +1066,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1093,133 +1093,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1647,7 +1647,7 @@
   <sheetPr/>
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
@@ -1655,12 +1655,12 @@
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8833333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.775" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8849557522124" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.7787610619469" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -2327,20 +2327,20 @@
   <sheetPr/>
   <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.8583333333333" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.1" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.858407079646" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.0973451327434" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/form.xlsx
+++ b/form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7035"/>
+    <workbookView windowWidth="28800" windowHeight="14265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="物流地产收购前期调查表" sheetId="1" r:id="rId1"/>
@@ -17,9 +17,73 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
-    <t>請聯絡 webmaster@kb727.com 核對您自行翻譯的需求表。
-ご自身の翻訳依頼書を webmaster@kb727.com にご確認ください。
-Please contact webmaster@kb727.com to check your self-translation request form.</t>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>請聯絡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> webmaster@kb727.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核對您自行翻譯的需求表。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ご自身の翻訳依頼書を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> webmaster@kb727.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>にご確認ください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Please contact webmaster@kb727.com to check your self-translation request form.
+Пожалуйста, свяжитесь с webmaster@kb727.com, чтобы проверить форму запроса, переведенную самостоятельно.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -475,12 +539,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,7 +572,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -550,8 +614,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -587,27 +652,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,6 +691,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="等线"/>
@@ -650,6 +706,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -674,10 +738,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -695,7 +764,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,13 +776,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,19 +824,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -749,49 +848,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -803,49 +860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +884,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -978,6 +1047,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -994,51 +1078,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1067,6 +1106,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1081,149 +1150,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1235,9 +1304,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1645,624 +1711,627 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.8849557522124" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
-    <col min="7" max="7" width="28.7787610619469" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.8833333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="28.775" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="66" customHeight="1" spans="1:7">
+    <row r="1" ht="84" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="31" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="14" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="9" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C33" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="14" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="9" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="14" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="12"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="12"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="9" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="8"/>
+      <c r="E43" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A44" s="12"/>
-      <c r="B44" s="9" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A45" s="12"/>
-      <c r="B45" s="9"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
+      <c r="A45" s="11"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A46" s="12"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
+      <c r="A46" s="11"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="30"/>
-      <c r="C47" s="30"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -2325,819 +2394,822 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="17" style="3" customWidth="1"/>
-    <col min="3" max="3" width="32.858407079646" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.4424778761062" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.2212389380531" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.4424778761062" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.0973451327434" style="1" customWidth="1"/>
-    <col min="8" max="8" width="60.7787610619469" style="1" customWidth="1"/>
+    <col min="3" max="3" width="32.8583333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.4416666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.225" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.4416666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="24.1" style="1" customWidth="1"/>
+    <col min="8" max="8" width="60.775" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="64" customHeight="1" spans="1:7">
+    <row r="1" s="1" customFormat="1" ht="85" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="12"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="12"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="14" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="12"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="14" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="12"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="14" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="12"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="14" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="14" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="12"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="14" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="12"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="14" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="27"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="12"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="27"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="12"/>
-      <c r="B25" s="19" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C25" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="12"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="14" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="21" t="s">
+      <c r="E26" s="22"/>
+      <c r="F26" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="22"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="12"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="14" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="29" t="s">
+      <c r="E27" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="28" t="s">
+      <c r="F27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="12"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="14" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="12"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="14" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="12"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="14" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="12"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="14" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="12"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="14" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="21" t="s">
+      <c r="D32" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="12"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="14" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="21" t="s">
+      <c r="D33" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="12"/>
-      <c r="B34" s="19"/>
-      <c r="C34" s="14" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="12"/>
-      <c r="B35" s="19" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="12"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="14" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="12"/>
-      <c r="B37" s="19"/>
-      <c r="C37" s="14" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="12"/>
-      <c r="B38" s="19" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C38" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A39" s="12"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="14" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="12"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="14" t="s">
+      <c r="A40" s="11"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="12"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="14" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="12"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="14" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D42" s="25" t="s">
+      <c r="D42" s="24" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A43" s="12"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="9" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A44" s="12"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
+      <c r="A44" s="11"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A45" s="12"/>
-      <c r="B45" s="19"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
+      <c r="A45" s="11"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A46" s="12"/>
-      <c r="B46" s="13" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="25" t="s">
+      <c r="D46" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="23"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="22"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A47" s="12"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="9" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="21" t="s">
+      <c r="D47" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="23"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="21"/>
+      <c r="G47" s="22"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A48" s="12"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="9" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D48" s="25" t="s">
+      <c r="D48" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="23"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="21"/>
+      <c r="G48" s="22"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A49" s="12"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="9" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="D49" s="25" t="s">
+      <c r="D49" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="27"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A50" s="12"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="9" t="s">
+      <c r="A50" s="11"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D50" s="21" t="s">
+      <c r="D50" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="23"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
+      <c r="G50" s="22"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A51" s="12"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="9" t="s">
+      <c r="A51" s="11"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D51" s="21" t="s">
+      <c r="D51" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="23"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+      <c r="G51" s="22"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A52" s="12"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="20" t="s">
+      <c r="A52" s="11"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D52" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="23"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="22"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A53" s="12"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="20" t="s">
+      <c r="A53" s="11"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="23"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="22"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A54" s="12"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="9" t="s">
+      <c r="A54" s="11"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D54" s="21" t="s">
+      <c r="D54" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="23"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A55" s="12"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="9" t="s">
+      <c r="A55" s="11"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D55" s="21" t="s">
+      <c r="D55" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="23"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="22"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A56" s="12"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="9" t="s">
+      <c r="A56" s="11"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D56" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="23"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="22"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A57" s="12"/>
-      <c r="B57" s="24"/>
-      <c r="C57" s="9" t="s">
+      <c r="A57" s="11"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D57" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="23"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="22"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A58" s="12"/>
-      <c r="B58" s="19" t="s">
+      <c r="A58" s="11"/>
+      <c r="B58" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="8"/>
+      <c r="E58" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A59" s="12"/>
-      <c r="B59" s="19" t="s">
+      <c r="A59" s="11"/>
+      <c r="B59" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A60" s="12"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
+      <c r="A60" s="11"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A61" s="12"/>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
+      <c r="A61" s="11"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B62" s="30"/>
-      <c r="C62" s="30"/>
-      <c r="D62" s="30"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B1:J1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>

--- a/form.xlsx
+++ b/form.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="132">
   <si>
     <r>
       <rPr>
@@ -48,41 +48,7 @@
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ご自身の翻訳依頼書を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> webmaster@kb727.com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>にご確認ください。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-Please contact webmaster@kb727.com to check your self-translation request form.
-Пожалуйста, свяжитесь с webmaster@kb727.com, чтобы проверить форму запроса, переведенную самостоятельно.</t>
+Please contact webmaster@kb727.com to check your self-translation request form.</t>
     </r>
   </si>
   <si>
@@ -365,6 +331,36 @@
   </si>
   <si>
     <r>
+      <t>請聯絡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> webmaster@kb727.com </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>核對您自行翻譯的需求表。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Please contact webmaster@kb727.com to check your self-translation request form.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <b/>
         <sz val="36"/>
@@ -539,10 +535,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -567,6 +563,11 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -601,22 +602,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,68 +647,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -707,7 +662,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -721,9 +692,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -731,22 +708,41 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -764,19 +760,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,43 +790,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -842,7 +808,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,25 +838,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,31 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,7 +916,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -938,13 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,21 +1043,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1069,39 +1050,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1117,6 +1065,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1144,16 +1101,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1165,134 +1161,134 @@
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1305,85 +1301,88 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,7 +1713,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1730,608 +1729,608 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="84" customHeight="1" spans="1:10">
+    <row r="1" ht="49" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="30" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="13" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="13" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="13" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="8" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="13" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="13" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="13" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="64.5" customHeight="1" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="19"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
+      <c r="G45" s="19"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
     </row>
     <row r="47" customHeight="1" spans="2:7">
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="30"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
@@ -2397,7 +2396,7 @@
   <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -2413,803 +2412,803 @@
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="85" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="48" customHeight="1" spans="1:10">
       <c r="A1" s="4"/>
       <c r="B1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+        <v>85</v>
+      </c>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
       <c r="H1" s="5"/>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="141" customHeight="1" spans="1:7">
       <c r="A2" s="4"/>
-      <c r="B2" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="33.75" customHeight="1" spans="1:7">
       <c r="A3" s="4"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="36" customHeight="1" spans="1:7">
       <c r="A4" s="4"/>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="42.75" customHeight="1" spans="1:7">
       <c r="A5" s="4"/>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" s="1" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
       <c r="A6" s="4"/>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
     </row>
     <row r="7" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A8" s="11"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
     </row>
     <row r="9" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A9" s="11"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
     </row>
     <row r="10" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A10" s="11"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A11" s="11"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="13" t="s">
+      <c r="A11" s="12"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A12" s="11"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A13" s="11"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
     </row>
     <row r="14" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A14" s="11"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A15" s="11"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
+      <c r="D15" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
     </row>
     <row r="16" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A16" s="11"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
+      <c r="A16" s="12"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A17" s="11"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
     </row>
     <row r="18" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A18" s="11"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="20" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
+      <c r="D18" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
     </row>
     <row r="19" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A19" s="11"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="20" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="D19" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
     </row>
     <row r="20" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A20" s="11"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="13" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="47.4" customHeight="1" spans="1:7">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
+      <c r="D21" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A22" s="11"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="24" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
+      <c r="D22" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A23" s="11"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="24" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
+      <c r="D23" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="34.95" customHeight="1" spans="1:7">
-      <c r="A24" s="11"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="D24" s="24" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
+      <c r="D24" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A25" s="11"/>
-      <c r="B25" s="18" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
+      <c r="D25" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
     </row>
     <row r="26" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A26" s="11"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="13" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="20" t="s">
+      <c r="E26" s="23"/>
+      <c r="F26" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="23"/>
     </row>
     <row r="27" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A27" s="11"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="13" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="E27" s="28" t="s">
+      <c r="E27" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="27" t="s">
+      <c r="F27" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="22" t="s">
+      <c r="G27" s="23" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A28" s="11"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="13" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
     </row>
     <row r="29" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A29" s="11"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="13" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
     </row>
     <row r="30" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A30" s="11"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="13" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
     </row>
     <row r="31" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A31" s="11"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="13" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
     </row>
     <row r="32" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A32" s="11"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" s="20" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="D32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A33" s="11"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D33" s="20" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="D33" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="34" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A34" s="11"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="13" t="s">
+      <c r="A34" s="12"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
     </row>
     <row r="35" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A35" s="11"/>
-      <c r="B35" s="18" t="s">
+      <c r="A35" s="12"/>
+      <c r="B35" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
     </row>
     <row r="36" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A36" s="11"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="13" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
     </row>
     <row r="37" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A37" s="11"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="13" t="s">
+      <c r="A37" s="12"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
     </row>
     <row r="38" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A38" s="11"/>
-      <c r="B38" s="18" t="s">
+      <c r="A38" s="12"/>
+      <c r="B38" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C38" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
     </row>
     <row r="39" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A39" s="11"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="13" t="s">
+      <c r="A39" s="12"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
     </row>
     <row r="40" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A40" s="11"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="13" t="s">
+      <c r="A40" s="12"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
     </row>
     <row r="41" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A41" s="11"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="13" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
     </row>
     <row r="42" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="24" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="26"/>
+      <c r="D42" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="27"/>
     </row>
     <row r="43" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="8" t="s">
+      <c r="A43" s="12"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
     </row>
     <row r="44" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8" t="s">
+      <c r="A44" s="12"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
     </row>
     <row r="45" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8" t="s">
+      <c r="A45" s="12"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" s="8" t="s">
+      <c r="A46" s="12"/>
+      <c r="B46" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="C46" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="22"/>
+      <c r="D46" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="23"/>
     </row>
     <row r="47" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" s="20" t="s">
+      <c r="A47" s="12"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="22"/>
+      <c r="D47" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="23"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="70" customHeight="1" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="A48" s="12"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="D48" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="23"/>
     </row>
     <row r="49" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A49" s="11"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D49" s="24" t="s">
+      <c r="A49" s="12"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E49" s="25"/>
-      <c r="F49" s="25"/>
-      <c r="G49" s="26"/>
+      <c r="D49" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="27"/>
     </row>
     <row r="50" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A50" s="11"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="20" t="s">
+      <c r="A50" s="12"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="E50" s="21"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="22"/>
+      <c r="D50" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="23"/>
     </row>
     <row r="51" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A51" s="11"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="D51" s="20" t="s">
+      <c r="A51" s="12"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="22"/>
+      <c r="D51" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="23"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A52" s="11"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="20" t="s">
+      <c r="A52" s="12"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E52" s="21"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="22"/>
+      <c r="D52" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="23"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="50" customHeight="1" spans="1:7">
-      <c r="A53" s="11"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="D53" s="20" t="s">
+      <c r="A53" s="12"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="22"/>
+      <c r="D53" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="23"/>
     </row>
     <row r="54" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A54" s="11"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="A54" s="12"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="22"/>
+      <c r="D54" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23"/>
     </row>
     <row r="55" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A55" s="11"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D55" s="20" t="s">
+      <c r="A55" s="12"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="22"/>
+      <c r="D55" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="23"/>
     </row>
     <row r="56" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A56" s="11"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D56" s="20" t="s">
+      <c r="A56" s="12"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="22"/>
+      <c r="D56" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="23"/>
     </row>
     <row r="57" s="2" customFormat="1" customHeight="1" spans="1:7">
-      <c r="A57" s="11"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D57" s="20" t="s">
+      <c r="A57" s="12"/>
+      <c r="B57" s="24"/>
+      <c r="C57" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E57" s="21"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="22"/>
+      <c r="D57" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="23"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="36.75" customHeight="1" spans="1:7">
-      <c r="A58" s="11"/>
-      <c r="B58" s="18" t="s">
+      <c r="A58" s="12"/>
+      <c r="B58" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="38.25" customHeight="1" spans="1:7">
-      <c r="A59" s="11"/>
-      <c r="B59" s="18" t="s">
+      <c r="A59" s="12"/>
+      <c r="B59" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
+      <c r="C59" s="19"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="19"/>
+      <c r="G59" s="19"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A60" s="11"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="19"/>
+      <c r="G60" s="19"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="16.95" customHeight="1" spans="1:7">
-      <c r="A61" s="11"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="19"/>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
     </row>
     <row r="62" s="1" customFormat="1" customHeight="1" spans="2:7">
-      <c r="B62" s="29"/>
-      <c r="C62" s="29"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
-      <c r="F62" s="29"/>
-      <c r="G62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C4:G4"/>
